--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H2">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I2">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J2">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N2">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O2">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P2">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q2">
-        <v>91.00872501817791</v>
+        <v>24.80993001566555</v>
       </c>
       <c r="R2">
-        <v>91.00872501817791</v>
+        <v>223.28937014099</v>
       </c>
       <c r="S2">
-        <v>0.0710804124285376</v>
+        <v>0.01462513102425577</v>
       </c>
       <c r="T2">
-        <v>0.0710804124285376</v>
+        <v>0.01591929156842095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H3">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I3">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J3">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N3">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O3">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P3">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q3">
-        <v>145.5400102899265</v>
+        <v>38.20476036873945</v>
       </c>
       <c r="R3">
-        <v>145.5400102899265</v>
+        <v>343.842843318655</v>
       </c>
       <c r="S3">
-        <v>0.1136709030282018</v>
+        <v>0.02252120928153773</v>
       </c>
       <c r="T3">
-        <v>0.1136709030282018</v>
+        <v>0.02451408445036283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H4">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I4">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J4">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N4">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O4">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P4">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q4">
-        <v>105.1461651958372</v>
+        <v>31.26245231887</v>
       </c>
       <c r="R4">
-        <v>105.1461651958372</v>
+        <v>281.36207086983</v>
       </c>
       <c r="S4">
-        <v>0.08212215681415649</v>
+        <v>0.01842880898955881</v>
       </c>
       <c r="T4">
-        <v>0.08212215681415649</v>
+        <v>0.02005955249747602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H5">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I5">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J5">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N5">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O5">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P5">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q5">
-        <v>161.3729396252961</v>
+        <v>40.41634779554722</v>
       </c>
       <c r="R5">
-        <v>161.3729396252961</v>
+        <v>363.747130159925</v>
       </c>
       <c r="S5">
-        <v>0.126036872850163</v>
+        <v>0.0238249113019883</v>
       </c>
       <c r="T5">
-        <v>0.126036872850163</v>
+        <v>0.0259331495204447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H6">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I6">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J6">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N6">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O6">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P6">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q6">
-        <v>75.83319561871173</v>
+        <v>19.24213972827667</v>
       </c>
       <c r="R6">
-        <v>75.83319561871173</v>
+        <v>115.45283836966</v>
       </c>
       <c r="S6">
-        <v>0.05922789072449219</v>
+        <v>0.01134299107395262</v>
       </c>
       <c r="T6">
-        <v>0.05922789072449219</v>
+        <v>0.00823114595758807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H7">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I7">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J7">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N7">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O7">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P7">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q7">
-        <v>88.81755372464396</v>
+        <v>5.051940220697777</v>
       </c>
       <c r="R7">
-        <v>88.81755372464396</v>
+        <v>45.46746198627999</v>
       </c>
       <c r="S7">
-        <v>0.06936904509298976</v>
+        <v>0.002978053046008583</v>
       </c>
       <c r="T7">
-        <v>0.06936904509298976</v>
+        <v>0.003241577437289815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H8">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I8">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J8">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N8">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O8">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P8">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q8">
-        <v>142.0359166709441</v>
+        <v>7.779472388962223</v>
       </c>
       <c r="R8">
-        <v>142.0359166709441</v>
+        <v>70.01525150066</v>
       </c>
       <c r="S8">
-        <v>0.1109341058741297</v>
+        <v>0.004585897780296513</v>
       </c>
       <c r="T8">
-        <v>0.1109341058741297</v>
+        <v>0.004991698450183946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H9">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I9">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J9">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N9">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O9">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P9">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q9">
-        <v>102.6146138664863</v>
+        <v>6.365839813639999</v>
       </c>
       <c r="R9">
-        <v>102.6146138664863</v>
+        <v>57.29255832275999</v>
       </c>
       <c r="S9">
-        <v>0.08014494295319612</v>
+        <v>0.003752579765244104</v>
       </c>
       <c r="T9">
-        <v>0.08014494295319612</v>
+        <v>0.004084641109717338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H10">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I10">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J10">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N10">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O10">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P10">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q10">
-        <v>157.4876445309025</v>
+        <v>8.22980850301111</v>
       </c>
       <c r="R10">
-        <v>157.4876445309025</v>
+        <v>74.0682765271</v>
       </c>
       <c r="S10">
-        <v>0.1230023464609525</v>
+        <v>0.004851365061693941</v>
       </c>
       <c r="T10">
-        <v>0.1230023464609525</v>
+        <v>0.005280656617289103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H11">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I11">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J11">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N11">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O11">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P11">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q11">
-        <v>74.00739791301397</v>
+        <v>3.918194834253334</v>
       </c>
       <c r="R11">
-        <v>74.00739791301397</v>
+        <v>23.50916900552</v>
       </c>
       <c r="S11">
-        <v>0.05780189059201971</v>
+        <v>0.002309724888112703</v>
       </c>
       <c r="T11">
-        <v>0.05780189059201971</v>
+        <v>0.001676073140847897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H12">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I12">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J12">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N12">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O12">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P12">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q12">
-        <v>21.45889867195926</v>
+        <v>108.048924352392</v>
       </c>
       <c r="R12">
-        <v>21.45889867195926</v>
+        <v>972.440319171528</v>
       </c>
       <c r="S12">
-        <v>0.01676001248847734</v>
+        <v>0.06369343543838454</v>
       </c>
       <c r="T12">
-        <v>0.01676001248847734</v>
+        <v>0.06932959219691071</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H13">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I13">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J13">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N13">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O13">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P13">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q13">
-        <v>34.31680130562903</v>
+        <v>166.384317101124</v>
       </c>
       <c r="R13">
-        <v>34.31680130562903</v>
+        <v>1497.458853910116</v>
       </c>
       <c r="S13">
-        <v>0.0268024015229867</v>
+        <v>0.09808139065482084</v>
       </c>
       <c r="T13">
-        <v>0.0268024015229867</v>
+        <v>0.1067604968926933</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H14">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I14">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J14">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N14">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O14">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P14">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q14">
-        <v>24.79235814183625</v>
+        <v>136.150095689064</v>
       </c>
       <c r="R14">
-        <v>24.79235814183625</v>
+        <v>1225.350861201576</v>
       </c>
       <c r="S14">
-        <v>0.01936353950069891</v>
+        <v>0.08025871040991346</v>
       </c>
       <c r="T14">
-        <v>0.01936353950069891</v>
+        <v>0.08736070875548897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H15">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I15">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J15">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N15">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O15">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P15">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q15">
-        <v>38.0500392585849</v>
+        <v>176.01593002494</v>
       </c>
       <c r="R15">
-        <v>38.0500392585849</v>
+        <v>1584.14337022446</v>
       </c>
       <c r="S15">
-        <v>0.02971816694368642</v>
+        <v>0.1037591011883362</v>
       </c>
       <c r="T15">
-        <v>0.02971816694368642</v>
+        <v>0.1129406213151155</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.208284</v>
+      </c>
+      <c r="H16">
+        <v>9.624852000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.3951921315112883</v>
+      </c>
+      <c r="J16">
+        <v>0.4122386168888342</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.120138</v>
+      </c>
+      <c r="N16">
+        <v>52.24027600000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1250012079717284</v>
+      </c>
+      <c r="P16">
+        <v>0.08695739860366467</v>
+      </c>
+      <c r="Q16">
+        <v>83.80082082319203</v>
+      </c>
+      <c r="R16">
+        <v>502.8049249391521</v>
+      </c>
+      <c r="S16">
+        <v>0.04939949381983318</v>
+      </c>
+      <c r="T16">
+        <v>0.03584719772862577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H17">
+        <v>9.048665</v>
+      </c>
+      <c r="I17">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J17">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.67810466666666</v>
+      </c>
+      <c r="N17">
+        <v>101.034314</v>
+      </c>
+      <c r="O17">
+        <v>0.1611708087274131</v>
+      </c>
+      <c r="P17">
+        <v>0.1681783058563055</v>
+      </c>
+      <c r="Q17">
+        <v>101.5806289878678</v>
+      </c>
+      <c r="R17">
+        <v>914.2256608908099</v>
+      </c>
+      <c r="S17">
+        <v>0.05988045945860463</v>
+      </c>
+      <c r="T17">
+        <v>0.06517921048307641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H18">
+        <v>9.048665</v>
+      </c>
+      <c r="I18">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J18">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.86084433333334</v>
+      </c>
+      <c r="N18">
+        <v>155.582533</v>
+      </c>
+      <c r="O18">
+        <v>0.2481865979460151</v>
+      </c>
+      <c r="P18">
+        <v>0.2589774284088547</v>
+      </c>
+      <c r="Q18">
+        <v>156.4238023298272</v>
+      </c>
+      <c r="R18">
+        <v>1407.814220968445</v>
+      </c>
+      <c r="S18">
+        <v>0.09220979676047011</v>
+      </c>
+      <c r="T18">
+        <v>0.1003693326001816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H19">
+        <v>9.048665</v>
+      </c>
+      <c r="I19">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J19">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>42.437046</v>
+      </c>
+      <c r="N19">
+        <v>127.311138</v>
+      </c>
+      <c r="O19">
+        <v>0.2030878249093402</v>
+      </c>
+      <c r="P19">
+        <v>0.2119178193804366</v>
+      </c>
+      <c r="Q19">
+        <v>127.99953761453</v>
+      </c>
+      <c r="R19">
+        <v>1151.99583853077</v>
+      </c>
+      <c r="S19">
+        <v>0.07545406244494143</v>
+      </c>
+      <c r="T19">
+        <v>0.08213090317554873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H20">
+        <v>9.048665</v>
+      </c>
+      <c r="I20">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J20">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>54.86295166666667</v>
+      </c>
+      <c r="N20">
+        <v>164.588855</v>
+      </c>
+      <c r="O20">
+        <v>0.2625535604455031</v>
+      </c>
+      <c r="P20">
+        <v>0.2739690477507386</v>
+      </c>
+      <c r="Q20">
+        <v>165.4788235142861</v>
+      </c>
+      <c r="R20">
+        <v>1489.309411628575</v>
+      </c>
+      <c r="S20">
+        <v>0.09754761396376342</v>
+      </c>
+      <c r="T20">
+        <v>0.1061794869336525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H21">
+        <v>9.048665</v>
+      </c>
+      <c r="I21">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J21">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.120138</v>
+      </c>
+      <c r="N21">
+        <v>52.24027600000001</v>
+      </c>
+      <c r="O21">
+        <v>0.1250012079717284</v>
+      </c>
+      <c r="P21">
+        <v>0.08695739860366467</v>
+      </c>
+      <c r="Q21">
+        <v>78.78412617192335</v>
+      </c>
+      <c r="R21">
+        <v>472.7047570315401</v>
+      </c>
+      <c r="S21">
+        <v>0.04644221757853947</v>
+      </c>
+      <c r="T21">
+        <v>0.0337012229834906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0070985</v>
+      </c>
+      <c r="H22">
+        <v>2.014197</v>
+      </c>
+      <c r="I22">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J22">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.67810466666666</v>
+      </c>
+      <c r="N22">
+        <v>101.034314</v>
+      </c>
+      <c r="O22">
+        <v>0.1611708087274131</v>
+      </c>
+      <c r="P22">
+        <v>0.1681783058563055</v>
+      </c>
+      <c r="Q22">
+        <v>33.917168692643</v>
+      </c>
+      <c r="R22">
+        <v>203.503012155858</v>
+      </c>
+      <c r="S22">
+        <v>0.01999372976015961</v>
+      </c>
+      <c r="T22">
+        <v>0.01450863417060761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0070985</v>
+      </c>
+      <c r="H23">
+        <v>2.014197</v>
+      </c>
+      <c r="I23">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J23">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.86084433333334</v>
+      </c>
+      <c r="N23">
+        <v>155.582533</v>
+      </c>
+      <c r="O23">
+        <v>0.2481865979460151</v>
+      </c>
+      <c r="P23">
+        <v>0.2589774284088547</v>
+      </c>
+      <c r="Q23">
+        <v>52.22897853683352</v>
+      </c>
+      <c r="R23">
+        <v>313.3738712210011</v>
+      </c>
+      <c r="S23">
+        <v>0.03078830346888994</v>
+      </c>
+      <c r="T23">
+        <v>0.02234181601543299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.721833685665888</v>
-      </c>
-      <c r="H16">
-        <v>0.721833685665888</v>
-      </c>
-      <c r="I16">
-        <v>0.1066094331811611</v>
-      </c>
-      <c r="J16">
-        <v>0.1066094331811611</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>24.7711752082246</v>
-      </c>
-      <c r="N16">
-        <v>24.7711752082246</v>
-      </c>
-      <c r="O16">
-        <v>0.1309950940418236</v>
-      </c>
-      <c r="P16">
-        <v>0.1309950940418236</v>
-      </c>
-      <c r="Q16">
-        <v>17.88066869882823</v>
-      </c>
-      <c r="R16">
-        <v>17.88066869882823</v>
-      </c>
-      <c r="S16">
-        <v>0.01396531272531171</v>
-      </c>
-      <c r="T16">
-        <v>0.01396531272531171</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0070985</v>
+      </c>
+      <c r="H24">
+        <v>2.014197</v>
+      </c>
+      <c r="I24">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J24">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>42.437046</v>
+      </c>
+      <c r="N24">
+        <v>127.311138</v>
+      </c>
+      <c r="O24">
+        <v>0.2030878249093402</v>
+      </c>
+      <c r="P24">
+        <v>0.2119178193804366</v>
+      </c>
+      <c r="Q24">
+        <v>42.738285371031</v>
+      </c>
+      <c r="R24">
+        <v>256.429712226186</v>
+      </c>
+      <c r="S24">
+        <v>0.0251936632996824</v>
+      </c>
+      <c r="T24">
+        <v>0.01828201384220554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0070985</v>
+      </c>
+      <c r="H25">
+        <v>2.014197</v>
+      </c>
+      <c r="I25">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J25">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>54.86295166666667</v>
+      </c>
+      <c r="N25">
+        <v>164.588855</v>
+      </c>
+      <c r="O25">
+        <v>0.2625535604455031</v>
+      </c>
+      <c r="P25">
+        <v>0.2739690477507386</v>
+      </c>
+      <c r="Q25">
+        <v>55.25239632907251</v>
+      </c>
+      <c r="R25">
+        <v>331.514377974435</v>
+      </c>
+      <c r="S25">
+        <v>0.0325705689297212</v>
+      </c>
+      <c r="T25">
+        <v>0.02363513336423684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.0070985</v>
+      </c>
+      <c r="H26">
+        <v>2.014197</v>
+      </c>
+      <c r="I26">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J26">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.120138</v>
+      </c>
+      <c r="N26">
+        <v>52.24027600000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1250012079717284</v>
+      </c>
+      <c r="P26">
+        <v>0.08695739860366467</v>
+      </c>
+      <c r="Q26">
+        <v>26.30555179959301</v>
+      </c>
+      <c r="R26">
+        <v>105.222207198372</v>
+      </c>
+      <c r="S26">
+        <v>0.01550678061129042</v>
+      </c>
+      <c r="T26">
+        <v>0.007501758793112335</v>
       </c>
     </row>
   </sheetData>
